--- a/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -60,22 +60,22 @@
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.8522320616237735</t>
+    <t>-2.8</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.10379143254523569</t>
+    <t>0.73</t>
   </si>
   <si>
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.14776793837622637</t>
-  </si>
-  <si>
-    <t>0.5815339895515225</t>
+    <t>0.7999999999999998</t>
+  </si>
+  <si>
+    <t>0.64</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 - 0.19730649554907154y</t>
-  </si>
-  <si>
-    <t>-1.3046465161778296</t>
+    <t>-1 - 12.496867819078878y</t>
+  </si>
+  <si>
+    <t>-34.11669972055903</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.07674479715761028</t>
-  </si>
-  <si>
-    <t>-0.7563408495808517</t>
-  </si>
-  <si>
-    <t>-0.10901335003570511</t>
-  </si>
-  <si>
-    <t>-1 - 0.44749234062295395y</t>
-  </si>
-  <si>
-    <t>-1.690940164983773</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-3.0831527603770423</t>
+  </si>
+  <si>
+    <t>-5.131867721848989</t>
+  </si>
+  <si>
+    <t>-1 - 0.5893476832639453y</t>
+  </si>
+  <si>
+    <t>-2.5617713606494554</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.3039754280005046</t>
-  </si>
-  <si>
-    <t>0.6472896929601298</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>5.815286436845256</t>
+  </si>
+  <si>
+    <t>4.145764709894456</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.8522320616237736</t>
-  </si>
-  <si>
-    <t>1.5440267961277625</t>
+    <t>1.7999999999999998</t>
+  </si>
+  <si>
+    <t>2.6500000000000004</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.5457245078771438</t>
+    <t>2.420045847611954</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.1269710996757878</t>
-  </si>
-  <si>
-    <t>0.6695614756786108</t>
+    <t>1.9933118793239064</t>
+  </si>
+  <si>
+    <t>-34.841701093513976</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.552507659377046</v>
+        <v>0.41065231673605473</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-2.8</t>
+    <t>2.3000000000000003 - x</t>
+  </si>
+  <si>
+    <t>-3.3000000000000003</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>0.7999999999999998</t>
-  </si>
-  <si>
-    <t>0.64</t>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>-2.3000000000000003 + x</t>
+  </si>
+  <si>
+    <t>1.3000000000000003</t>
+  </si>
+  <si>
+    <t>0.17</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,37 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 - 12.496867819078878y</t>
-  </si>
-  <si>
-    <t>-34.11669972055903</t>
+    <t>3.9796747967479664 - 0.8943089430894309y</t>
+  </si>
+  <si>
+    <t>-4.979674796747966</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>-3.0831527603770423</t>
-  </si>
-  <si>
-    <t>-5.131867721848989</t>
-  </si>
-  <si>
-    <t>-1 - 0.5893476832639453y</t>
-  </si>
-  <si>
-    <t>-2.5617713606494554</t>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>-1.1</t>
+  </si>
+  <si>
+    <t>-1.0234999999999999 + 0.22999999999999998y</t>
+  </si>
+  <si>
+    <t>0.023499999999999854</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>5.815286436845256</t>
-  </si>
-  <si>
-    <t>4.145764709894456</t>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.7999999999999998</t>
-  </si>
-  <si>
-    <t>2.6500000000000004</t>
+    <t>2.3000000000000003</t>
+  </si>
+  <si>
+    <t>4.449999999999999</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>2.420045847611954</t>
+    <t>2.479033333333337</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.9933118793239064</t>
-  </si>
-  <si>
-    <t>-34.841701093513976</t>
+    <t>13.386600000000003</t>
+  </si>
+  <si>
+    <t>-4.5607398373983745</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -629,27 +626,27 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +664,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +716,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +744,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.41065231673605473</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>2.3000000000000003 - x</t>
-  </si>
-  <si>
-    <t>-3.3000000000000003</t>
+    <t>1.0499999999999998 - x</t>
+  </si>
+  <si>
+    <t>-2.05</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>-2.3000000000000003 + x</t>
-  </si>
-  <si>
-    <t>1.3000000000000003</t>
-  </si>
-  <si>
-    <t>0.17</t>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>-1.05 + x</t>
+  </si>
+  <si>
+    <t>0.050000000000000044</t>
+  </si>
+  <si>
+    <t>0.72</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,37 +87,22 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>3.9796747967479664 - 0.8943089430894309y</t>
-  </si>
-  <si>
-    <t>-4.979674796747966</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>-1.1</t>
-  </si>
-  <si>
-    <t>-1.0234999999999999 + 0.22999999999999998y</t>
-  </si>
-  <si>
-    <t>0.023499999999999854</t>
+    <t>0.47</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.88</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +111,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>4.449999999999999</t>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>2.85</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>2.479033333333337</t>
+    <t>-1.834875</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>13.386600000000003</t>
-  </si>
-  <si>
-    <t>-4.5607398373983745</t>
+    <t>-0.45062500000000005</t>
+  </si>
+  <si>
+    <t>-1.3625000000000003</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -623,30 +608,30 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -664,18 +649,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -693,12 +678,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -716,17 +701,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -744,12 +729,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.23</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
